--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3972456.347943521</v>
+        <v>3990831.03740964</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>682213.8818051491</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>351.6229296948613</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>343.102228292397</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>84.45262105857526</v>
+        <v>112.856619986382</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>160.5713327074068</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>106.7209824064459</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>29.48726939187553</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>78.40650161670888</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>358.1487548459123</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1184,13 +1184,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>154.369230484008</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>70.40870439282088</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>14.86965341517843</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>123.7337473930335</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>86.19053366520818</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>111.0732817196187</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>96.84207451769305</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>192.5930532366085</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>77.67696407195062</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>225.572448716756</v>
+        <v>64.3419076393841</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.4653217847137</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415412</v>
+        <v>41.83246227415119</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415164</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224548</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463189</v>
+        <v>42.28735533463099</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885723</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.61255069862459</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002191</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.6405432696254</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1282.512107596176</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>896.7238549979313</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>889.7783542487279</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.706141594827</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.240383333747</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.240383333747</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>642.8233063694895</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>642.8233063694895</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>642.8233063694895</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>494.9102127870964</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>642.8233063694895</v>
+        <v>614.1323983616041</v>
       </c>
       <c r="X4" t="n">
-        <v>642.8233063694895</v>
+        <v>614.1323983616041</v>
       </c>
       <c r="Y4" t="n">
-        <v>642.8233063694895</v>
+        <v>393.339819218074</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.350118890499</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.350118890499</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2335.588333528591</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2335.588333528591</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.819678258477</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511404</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511404</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511404</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>668.9269444622021</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>668.9269444622021</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>668.9269444622021</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>668.9269444622021</v>
       </c>
       <c r="W7" t="n">
-        <v>648.9304977249103</v>
+        <v>668.9269444622021</v>
       </c>
       <c r="X7" t="n">
-        <v>648.9304977249103</v>
+        <v>668.9269444622021</v>
       </c>
       <c r="Y7" t="n">
-        <v>428.1379185813802</v>
+        <v>668.9269444622021</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.118241157406</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.155724216995</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>1153.890025610244</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>1153.890025610244</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>742.9041208206368</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2310.014398222474</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2310.014398222474</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2310.014398222474</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>2310.014398222474</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>2310.014398222474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.118241157406</v>
+        <v>1919.875066246662</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>479.4455030671483</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>190.2718927217162</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V10" t="n">
-        <v>190.2718927217162</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2292.946699347401</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>754.894602230607</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X13" t="n">
-        <v>667.8334571142351</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>985.7136853104475</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768801</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764784</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,43 +5738,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.0750425434827</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>789.0750425434827</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>789.0750425434827</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>641.1619489610896</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>494.2720014631792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>326.0966797829998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>175.6786713309431</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.867621687013</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1009.867621687013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>789.0750425434827</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.0436439308536</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>527.0436439308536</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>376.9270045185178</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185178</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1071.145302173701</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V25" t="n">
-        <v>816.4608139678141</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W25" t="n">
-        <v>527.0436439308536</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X25" t="n">
-        <v>527.0436439308536</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.0436439308536</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1313.597763704656</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1089.812348494162</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>800.6837097077201</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>545.9992215018333</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,16 +6455,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,40 +6473,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.793971740467</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.677879852601</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.381331480306</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>3221.288328937954</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>3143.218472480085</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>3043.863241839947</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
-        <v>2962.265324427931</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>2919.550824089919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>2999.384087782174</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>3217.020063255129</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
-        <v>3532.182679494603</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
-        <v>3871.19999349013</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
-        <v>4209.194673746022</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>4510.520222979763</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>4754.570558813791</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>4818.599560616156</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S31" t="n">
-        <v>4687.49964157175</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
-        <v>4532.534317401297</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U31" t="n">
-        <v>4312.225769654896</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>4126.36137248905</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>3905.76429349213</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>3746.594833634154</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y31" t="n">
-        <v>3594.622345530665</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,13 +6883,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,34 +6929,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K36" t="n">
-        <v>339.7502131046252</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>953.6472828615139</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982979</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,37 +7160,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3691419079765</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,19 +7397,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,22 +7491,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7546,19 +7546,19 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
@@ -7582,37 +7582,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
@@ -7637,7 +7637,7 @@
         <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,37 +7646,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7685,10 +7685,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3774.220663094765</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="C46" t="n">
-        <v>3774.220663094765</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="D46" t="n">
-        <v>3774.220663094765</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="E46" t="n">
-        <v>3774.220663094765</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596855</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
         <v>4411.546387431056</v>
@@ -7828,28 +7828,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U46" t="n">
-        <v>4326.074044281177</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V46" t="n">
-        <v>4071.38955607529</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W46" t="n">
-        <v>4071.38955607529</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X46" t="n">
-        <v>4071.38955607529</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="Y46" t="n">
-        <v>3850.59697693176</v>
+        <v>3575.849309876492</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>38.86002301949938</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,25 +10194,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K36" t="n">
-        <v>52.49733361305249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>369.0893880493733</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.51307370559437</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>139.519121723829</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>37.54219129859361</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>124.7054865406962</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>93.92994509998255</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>32.74228139232137</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>60.66490368182136</v>
+        <v>221.8954447591933</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>14.45548819888955</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="29">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>104.2194294833127</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,10 +26032,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.96659166315844</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664823.1235065464</v>
+        <v>664823.1235065463</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="I2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="N2" t="n">
         <v>800515.725617677</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885327</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371244</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>53757.15203161971</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="L4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="M4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="N4" t="n">
-        <v>53757.15203161971</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="O4" t="n">
-        <v>53757.15203161971</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49330.33014554612</v>
+        <v>-46802.00898210402</v>
       </c>
       <c r="C6" t="n">
-        <v>540637.5490689982</v>
+        <v>543165.8702324406</v>
       </c>
       <c r="D6" t="n">
-        <v>540637.5490689983</v>
+        <v>543165.8702324406</v>
       </c>
       <c r="E6" t="n">
-        <v>114020.9392726205</v>
+        <v>116055.7585106172</v>
       </c>
       <c r="F6" t="n">
-        <v>639180.9757495165</v>
+        <v>641215.7949875135</v>
       </c>
       <c r="G6" t="n">
-        <v>639180.975749517</v>
+        <v>641215.7949875135</v>
       </c>
       <c r="H6" t="n">
-        <v>639180.9757495169</v>
+        <v>641215.7949875136</v>
       </c>
       <c r="I6" t="n">
-        <v>639180.9757495164</v>
+        <v>641215.7949875132</v>
       </c>
       <c r="J6" t="n">
-        <v>462757.7565569237</v>
+        <v>464792.5757949204</v>
       </c>
       <c r="K6" t="n">
-        <v>594537.9556623192</v>
+        <v>596572.774900316</v>
       </c>
       <c r="L6" t="n">
-        <v>649043.4677660315</v>
+        <v>651078.2870040286</v>
       </c>
       <c r="M6" t="n">
-        <v>514242.4525321944</v>
+        <v>516277.2717701914</v>
       </c>
       <c r="N6" t="n">
-        <v>649043.4677660319</v>
+        <v>651078.2870040288</v>
       </c>
       <c r="O6" t="n">
-        <v>649043.4677660315</v>
+        <v>651078.2870040282</v>
       </c>
       <c r="P6" t="n">
-        <v>639180.9757495166</v>
+        <v>641215.7949875138</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62.16124032593365</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>6.13874042501601</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>202.0703772780157</v>
+        <v>173.666378350209</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>221.359037364855</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>67.69473040252562</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>182.6582695581434</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>208.1164967198821</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>55.63541517488267</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>62.07908987364982</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>154.6264010652634</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>271.4122208267993</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>245.953437951024</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>590.488811868312</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K36" t="n">
-        <v>203.0727722009917</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>354.1326152325993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4064206.32639573</v>
+        <v>4057189.311504018</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7445238.17318634</v>
+        <v>7445238.173186339</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>128.9001284632685</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>215.6411024678877</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.886038567534</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>245.3870660408207</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>272.3250975199572</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.80100608808129</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>49.72959917530118</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
-        <v>44.85034555736554</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>23.27179657617392</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>26.9744467395492</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.821413710822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>9.19231730057191</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.6842167033196</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>73.21532344290821</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>70.79875628846462</v>
+        <v>255.4853389885909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>169.4903032986058</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.4875486616809</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>49.65580737697969</v>
       </c>
       <c r="S37" t="n">
-        <v>150.0471271686889</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>103.4415592848742</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>82.76481347543414</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>44.87129399383069</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>511.3398517472591</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>184.1451317832619</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1775.727166050931</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1422.958510780817</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.958510780817</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.106519274536</v>
+        <v>1447.000728742896</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1078.038211802484</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>719.7725131957338</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>719.7725131957338</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.311449575549</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.845691314469</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.706359338657</v>
+        <v>1447.000728742896</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2022.963088632153</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>2022.963088632153</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>2022.963088632153</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>2022.963088632153</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>2667.732171871844</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R7" t="n">
-        <v>2519.585513306029</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S7" t="n">
-        <v>2305.297090124192</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T7" t="n">
-        <v>2250.95263953017</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U7" t="n">
-        <v>2250.95263953017</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V7" t="n">
-        <v>2250.95263953017</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W7" t="n">
-        <v>2250.95263953017</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X7" t="n">
-        <v>2022.963088632153</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y7" t="n">
-        <v>2022.963088632153</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1430.355453824634</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>1061.392936884222</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D8" t="n">
-        <v>1061.392936884222</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>675.604684285978</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.955293888756</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1816.955293888756</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.1363086691491</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>246.1363086691491</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>246.1363086691491</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>246.1363086691491</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>99.24636117123873</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.1363086691491</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,49 +5023,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507007</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379.1484955647072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>379.1484955647072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>379.1484955647072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>379.1484955647072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>232.2585480667969</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>781.5895395384771</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.796960394947</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655742</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655742</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>727.1135926675569</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,28 +5536,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147082</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211724</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011341</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.046207783208</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085867</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>1154.770582918758</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>865.353412881797</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>637.3638619837797</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766204</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1252.806604793143</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1252.806604793143</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>963.677966006701</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>708.9934778008142</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>708.9934778008142</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>708.9934778008142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.9934778008142</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514068</v>
@@ -6016,10 +6016,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.010087623275</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3533.110266081228</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3533.110266081228</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3533.110266081228</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3533.110266081228</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3533.110266081228</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3533.110266081228</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365623</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>4271.309566159736</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>3981.892396122776</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>3753.902845224758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3533.110266081228</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6211,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2338.69837048303</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3925.098163754828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3756.161980826922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4589.420667688972</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V28" t="n">
-        <v>4334.736179483085</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>4334.736179483085</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>4106.746628585068</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>4106.746628585068</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,34 +6454,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>709.4934589365143</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4037.957270257085</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3869.021087329178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4437.14914771935</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4437.14914771935</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4209.159596821333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4209.159596821333</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,22 +6776,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>481.4617027208816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188989</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>709.4512536188989</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>481.4617027208816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.4617027208816</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,7 +6964,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141867</v>
@@ -6976,10 +6976,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3721.107993746785</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C37" t="n">
-        <v>3721.107993746785</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D37" t="n">
-        <v>3721.107993746785</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>3721.107993746785</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>3721.107993746785</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1448.758889369034</v>
       </c>
       <c r="S37" t="n">
-        <v>4709.291818298445</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="T37" t="n">
-        <v>4709.291818298445</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="U37" t="n">
-        <v>4420.163179512003</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="V37" t="n">
-        <v>4420.163179512003</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="W37" t="n">
-        <v>4130.746009475042</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="X37" t="n">
-        <v>3902.756458577025</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3902.756458577025</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,10 +7165,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028587</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>909.3712637033467</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>804.8848401832718</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7399,49 +7399,49 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
@@ -7453,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211719</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011334</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>517.9294177607298</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>348.993234832823</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.78763177146</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344997</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>920.3704617344997</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>699.5778825909696</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>634.045500158222</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>880.8106280646859</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3871.224633159121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3871.224633159121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4749.779469576119</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4460.650830789677</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>4205.96634258379</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>3916.549172546829</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>3871.224633159121</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>3871.224633159121</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>127.6461250100646</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>43.65987261462425</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445216</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>403.7628319612147</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>39.88923345256683</v>
+        <v>127.6461250100645</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>414.5002179180834</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>230.7151863772029</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>199.7396287231155</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>176.7176547498455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>253.737160350474</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>73.64859338270691</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863232</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>50.62661940943696</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711665</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>223.6742649934485</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>143.2217718872037</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>194.5731143188401</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.7632396412728</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>242.9453260232561</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>64.23659328028361</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>75.69850492462791</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>215.4385961101127</v>
+        <v>30.75201340998646</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.34167688333147</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>98.75927243694693</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>60.30854502681308</v>
       </c>
       <c r="S37" t="n">
-        <v>47.87368281491433</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>183.0814390517168</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>65.85065954277822</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>180.8383613952064</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634610.7944551754</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551753</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634610.7944551755</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176764</v>
-      </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="G2" t="n">
+        <v>762506.666488532</v>
+      </c>
+      <c r="H2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="I2" t="n">
         <v>762506.6664885322</v>
       </c>
-      <c r="H2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885326</v>
-      </c>
       <c r="J2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="L2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230227</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230227</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230231</v>
@@ -26444,22 +26444,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26487,16 +26487,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46802.0089821039</v>
+        <v>-46802.00898210393</v>
       </c>
       <c r="C6" t="n">
+        <v>543165.8702324406</v>
+      </c>
+      <c r="D6" t="n">
         <v>543165.8702324405</v>
       </c>
-      <c r="D6" t="n">
-        <v>543165.8702324408</v>
-      </c>
       <c r="E6" t="n">
-        <v>116055.7585106174</v>
+        <v>115081.1672508953</v>
       </c>
       <c r="F6" t="n">
-        <v>641215.7949875136</v>
+        <v>640241.2037277917</v>
       </c>
       <c r="G6" t="n">
-        <v>641215.7949875133</v>
+        <v>640241.2037277914</v>
       </c>
       <c r="H6" t="n">
-        <v>641215.7949875135</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="I6" t="n">
-        <v>641215.7949875137</v>
+        <v>640241.2037277917</v>
       </c>
       <c r="J6" t="n">
-        <v>464792.575794921</v>
+        <v>463817.9845351989</v>
       </c>
       <c r="K6" t="n">
-        <v>641215.7949875132</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="L6" t="n">
-        <v>641215.7949875136</v>
+        <v>640241.203727792</v>
       </c>
       <c r="M6" t="n">
-        <v>506414.7797536765</v>
+        <v>505440.1884939546</v>
       </c>
       <c r="N6" t="n">
-        <v>641215.7949875133</v>
+        <v>640241.2037277916</v>
       </c>
       <c r="O6" t="n">
-        <v>641215.7949875137</v>
+        <v>640241.2037277918</v>
       </c>
       <c r="P6" t="n">
-        <v>641215.7949875133</v>
+        <v>640241.2037277916</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>112.1111560022472</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.25160475629397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>161.4889797008908</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>76.91587119745577</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.59587156758289</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>171.234099370003</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>245.24077931697</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>357.1464465664102</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
-        <v>122.4594567016854</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28803,16 +28803,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.253664418589324e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.253664418589324e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.253664418589324e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.253664418589324e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28866,10 +28866,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-8.253664418589324e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-8.253664418589324e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N11" t="n">
         <v>803.580930408112</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005179</v>
@@ -35497,19 +35497,19 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>326.0235748557325</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109073</v>
@@ -35667,7 +35667,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
         <v>59.82538970349813</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005179</v>
@@ -35734,7 +35734,7 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>714.187209011681</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>373.0838068505798</v>
+        <v>460.8406984080775</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>724.9245949685497</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109073</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36451,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8086013087276</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>287.7526615081896</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>425.9753597058698</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,19 +37156,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>536.1008625915821</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>356.012295623815</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178478</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>383.8211928074497</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303347</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>374.2497035813877</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4057189.311504018</v>
+        <v>4062128.574353049</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>99.72476023394486</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>128.9001284632685</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>245.3870660408207</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>29.43357108566551</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.52687838733143</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>109.4422623037129</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.983388191320715</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>30.60408762095474</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.347695664762796</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9744467395492</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>5.107731335945625</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>247.3486904822962</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>255.4853389885909</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>49.65580737697969</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.562624396424889</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>565.6609676543608</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>154.6750628647532</v>
       </c>
       <c r="G2" t="n">
-        <v>511.3398517472591</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>184.1451317832619</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,7 +4424,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1447.000728742896</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>1078.038211802484</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>719.7725131957338</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>719.7725131957338</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2667.418211133712</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2336.355323790141</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>1983.586668520027</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.140060718708</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1447.000728742896</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>808.0839286340188</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316971</v>
+        <v>439.1214116936071</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>80.85571308685655</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1958.288858935032</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1584.823100673952</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1194.683768698141</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
     </row>
     <row r="11">
@@ -5026,13 +5026,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,43 +5041,43 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5108,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
@@ -5123,13 +5123,13 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,16 +5217,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="T13" t="n">
         <v>1271.749344574921</v>
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5278,28 +5278,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,28 +5454,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5518,16 +5518,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,13 +5551,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,7 +5597,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
         <v>1288.32563221405</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5767,22 +5767,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,7 +5834,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
         <v>1288.32563221405</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,31 +5928,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>994.3846202486859</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="26">
@@ -6211,34 +6211,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.064856369034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6554,13 +6554,13 @@
         <v>1595.645765494011</v>
       </c>
       <c r="N30" t="n">
-        <v>1925.508393158044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6648,10 +6648,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
         <v>869.3083006011506</v>
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,19 +6788,19 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6891,16 +6891,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1448.758889369034</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1248.838879284587</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1248.838879284587</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1248.838879284587</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1248.838879284587</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>1248.838879284587</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>1248.838879284587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1028.046300141057</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7189,16 +7189,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7414,25 +7414,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8072,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028816</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>127.6461250100646</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.145412571163</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>127.6461250100647</v>
+        <v>116.9087390531963</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>106.61665673903</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>194.5731143188401</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>213.4769220161492</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>39.17430785429477</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.75201340998646</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.30854502681308</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>192.3581855871784</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26076,13 +26076,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>634610.7944551753</v>
+        <v>634610.7944551754</v>
       </c>
     </row>
     <row r="15">
@@ -26316,34 +26316,34 @@
         <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.666488532</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="I2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="J2" t="n">
         <v>762506.6664885322</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762506.6664885323</v>
       </c>
       <c r="K2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="M2" t="n">
         <v>762506.6664885324</v>
@@ -26355,7 +26355,7 @@
         <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230232</v>
@@ -26438,7 +26438,7 @@
         <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26447,10 +26447,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26459,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46802.00898210393</v>
+        <v>-46802.00898210402</v>
       </c>
       <c r="C6" t="n">
-        <v>543165.8702324406</v>
+        <v>543165.8702324405</v>
       </c>
       <c r="D6" t="n">
-        <v>543165.8702324405</v>
+        <v>543165.8702324408</v>
       </c>
       <c r="E6" t="n">
-        <v>115081.1672508953</v>
+        <v>115958.2993846453</v>
       </c>
       <c r="F6" t="n">
-        <v>640241.2037277917</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="G6" t="n">
-        <v>640241.2037277914</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="H6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615416</v>
       </c>
       <c r="I6" t="n">
-        <v>640241.2037277917</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="J6" t="n">
-        <v>463817.9845351989</v>
+        <v>464695.1166689481</v>
       </c>
       <c r="K6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="L6" t="n">
-        <v>640241.203727792</v>
+        <v>641118.3358615413</v>
       </c>
       <c r="M6" t="n">
-        <v>505440.1884939546</v>
+        <v>506317.3206277042</v>
       </c>
       <c r="N6" t="n">
-        <v>640241.2037277916</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="O6" t="n">
-        <v>640241.2037277918</v>
+        <v>641118.3358615411</v>
       </c>
       <c r="P6" t="n">
-        <v>640241.2037277916</v>
+        <v>641118.3358615413</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>314.0594097868501</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>23.03118778159273</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>161.4889797008908</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>221.7905964226238</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.59587156758289</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>116.0611043592034</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>245.24077931697</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9469818809411</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2278925609826</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932186</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>460.8406984080777</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>460.8406984080775</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36220,7 +36220,7 @@
         <v>334.7395399415897</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>460.8406984080777</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>215.6591577951388</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>438.070502060531</v>
+        <v>427.3331161036625</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
